--- a/devops/Backlog.xlsx
+++ b/devops/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оценка</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Окончание</t>
+  </si>
+  <si>
+    <t>Удаленная отладка через Eclipse</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +492,15 @@
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/devops/Backlog.xlsx
+++ b/devops/Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оценка</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Удаленная отладка через Eclipse</t>
+  </si>
+  <si>
+    <t>Сервер должен отдавать через REST-endpoint коллекцию примитовв из БД</t>
+  </si>
+  <si>
+    <t>Сделать чтобы докер композ стратовал при загрузке системы</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +510,22 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
